--- a/список.xlsx
+++ b/список.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\sendemails\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>НазваниеФирмы</t>
   </si>
@@ -135,13 +135,15 @@
   </si>
   <si>
     <t>отправленно</t>
+  </si>
+  <si>
+    <t>office@npspo.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,20 +494,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="31.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -647,9 +649,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -666,7 +666,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
